--- a/Resources/PTable/P_Table_Results.xlsx
+++ b/Resources/PTable/P_Table_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Google Drive\Certifications\Rice Data Analytics\HomeWorks_Projects\COPY_Project_1\Resources\PTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C604EBE-9743-4B6D-81D5-76E6816FFB29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C60F65-66FB-44FF-9AD8-20969DA2724C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{CE01DB0F-C9D0-4258-B5B5-7A6D5C965D33}"/>
   </bookViews>
@@ -33,24 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
     <t>Outbound Cities | p-values</t>
   </si>
   <si>
@@ -67,6 +49,24 @@
   </si>
   <si>
     <t xml:space="preserve">If the different in means is significant it means that prices varies amount each city </t>
+  </si>
+  <si>
+    <t>Houston - IAH</t>
+  </si>
+  <si>
+    <t>Chicago - ORD</t>
+  </si>
+  <si>
+    <t>Atlanta - ATL</t>
+  </si>
+  <si>
+    <t>New York - JFK</t>
+  </si>
+  <si>
+    <t>Los Angeles - LAX</t>
+  </si>
+  <si>
+    <t>Seattle - SEA</t>
   </si>
 </sst>
 </file>
@@ -253,36 +253,12 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -295,11 +271,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -317,96 +317,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -743,217 +653,219 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
         <f>C4</f>
         <v>1.58042839759884E-2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="2">
         <f>C5</f>
         <v>0.86774840429515498</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="3">
         <v>3.0530398888747598E-13</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="3">
         <f>C7</f>
         <v>4.06789896949021E-18</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="4">
         <v>0.79025407194409303</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="A4" s="13"/>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
         <v>1.58042839759884E-2</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9">
+      <c r="D4" s="1"/>
+      <c r="E4" s="2">
         <f>D5</f>
         <v>2.68038550979715E-2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="3">
         <v>1.90822154146444E-8</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="3">
         <f>D7</f>
         <v>1.60838995789632E-13</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="4">
         <v>2.6377667603534102E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="A5" s="13"/>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.86774840429515498</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="1">
         <v>2.68038550979715E-2</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10">
+      <c r="E5" s="1"/>
+      <c r="F5" s="3">
         <v>1.9242283782526099E-12</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="3">
         <f>E7</f>
         <v>3.7686549499016799E-17</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="4">
         <v>0.92633516495832602</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="A6" s="13"/>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
         <f>F3</f>
         <v>3.0530398888747598E-13</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="5">
         <f>F4</f>
         <v>1.90822154146444E-8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="5">
         <f>F5</f>
         <v>1.9242283782526099E-12</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
+      <c r="F6" s="1"/>
+      <c r="G6" s="2">
         <f>F7</f>
         <v>1.73149723372652E-2</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="6">
         <v>1.3417714712811301E-13</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="A7" s="13"/>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
         <v>4.06789896949021E-18</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="5">
         <v>1.60838995789632E-13</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="5">
         <v>3.7686549499016799E-17</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="1">
         <v>1.73149723372652E-2</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="13">
+      <c r="G7" s="1"/>
+      <c r="H7" s="6">
         <v>5.77310596123811E-19</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
-      <c r="B8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7">
         <f>H3</f>
         <v>0.79025407194409303</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="7">
         <f>H4</f>
         <v>2.6377667603534102E-2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="7">
         <f>H5</f>
         <v>0.92633516495832602</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="8">
         <f>H6</f>
         <v>1.3417714712811301E-13</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="8">
         <f>H7</f>
         <v>5.77310596123811E-19</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/PTable/P_Table_Results.xlsx
+++ b/Resources/PTable/P_Table_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Google Drive\Certifications\Rice Data Analytics\HomeWorks_Projects\COPY_Project_1\Resources\PTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C60F65-66FB-44FF-9AD8-20969DA2724C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BF2123-5D55-42CF-9128-8FB794D84FCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{CE01DB0F-C9D0-4258-B5B5-7A6D5C965D33}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Outbound Cities | p-values</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Seattle - SEA</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>ANOVA Testing - 5 Samples Means from Houston &amp; Atlanta Price Population</t>
+  </si>
+  <si>
+    <t>ANOVA Testing - 10 Samples Means entire price population</t>
   </si>
 </sst>
 </file>
@@ -251,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -295,11 +307,274 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -650,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD603ED4-3ACC-409E-A4A1-9DB1025C8EC2}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,30 +1143,99 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1.9541614193332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>6.5223433228301306E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>3.7086157713071701</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>5.8701752933851799E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C18:G18"/>
   </mergeCells>
   <conditionalFormatting sqref="D3 E3:E4 F3:F5 G3:G6 H3:H7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 E3:E4 F3:F5 G3:G6 H3:H7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>$B$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D16">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
